--- a/results/I3_N5_M3_T15_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.8901829964691</v>
+        <v>100.1901829964691</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0559999942779541</v>
+        <v>0.05100011825561523</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69999999999999</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.61000000000607</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>142.629000000046</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000000362</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000282</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0980000000419</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6290000000751</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>122.0980000000675</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.23200000002362</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
